--- a/src/excel/SpanishEnglish-VERBS4.xlsx
+++ b/src/excel/SpanishEnglish-VERBS4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\NetBeansProjects\Produccion1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D16094-4452-4DA7-BFD2-7DA4F1AC6C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4465B02-5405-49C5-B6A7-1C2509B0A107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>español</t>
   </si>
   <si>
-    <t>inglés</t>
-  </si>
-  <si>
     <t>recall</t>
   </si>
   <si>
@@ -232,6 +229,99 @@
   </si>
   <si>
     <t>implicar (sugerir)</t>
+  </si>
+  <si>
+    <t>riecol</t>
+  </si>
+  <si>
+    <t>est'ep op</t>
+  </si>
+  <si>
+    <t>iemplai</t>
+  </si>
+  <si>
+    <t>riemaind</t>
+  </si>
+  <si>
+    <t>edvais</t>
+  </si>
+  <si>
+    <t>aford</t>
+  </si>
+  <si>
+    <t>ern</t>
+  </si>
+  <si>
+    <t>relai</t>
+  </si>
+  <si>
+    <t>koup</t>
+  </si>
+  <si>
+    <t>gader</t>
+  </si>
+  <si>
+    <t>raid</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>blou</t>
+  </si>
+  <si>
+    <t>riekover</t>
+  </si>
+  <si>
+    <t>esl'iep</t>
+  </si>
+  <si>
+    <t>at'ach</t>
+  </si>
+  <si>
+    <t>lin</t>
+  </si>
+  <si>
+    <t>rrol</t>
+  </si>
+  <si>
+    <t>akius</t>
+  </si>
+  <si>
+    <t>baind</t>
+  </si>
+  <si>
+    <t>yodsh</t>
+  </si>
+  <si>
+    <t>rrest</t>
+  </si>
+  <si>
+    <t>est'iol</t>
+  </si>
+  <si>
+    <t>estr'etch</t>
+  </si>
+  <si>
+    <t>uitfdro</t>
+  </si>
+  <si>
+    <t>gou back</t>
+  </si>
+  <si>
+    <t>fiks</t>
+  </si>
+  <si>
+    <t>nock</t>
+  </si>
+  <si>
+    <t>persuu</t>
+  </si>
+  <si>
+    <t>nock aut</t>
+  </si>
+  <si>
+    <t>seks'id</t>
   </si>
 </sst>
 </file>
@@ -591,7 +681,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -619,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,13 +723,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -647,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -675,13 +765,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -689,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -717,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -731,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -745,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,13 +849,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -773,13 +863,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -801,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -815,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -829,13 +919,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -843,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -857,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -871,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -885,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -913,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -927,13 +1017,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -941,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -955,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -969,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
